--- a/3/5/2/2/comerciales - en pesos 2002 a 2021 - Mensual.xlsx
+++ b/3/5/2/2/comerciales - en pesos 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>Serie</t>
   </si>
@@ -737,6 +737,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:G236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6505,6 +6508,29 @@
         <v>4.49</v>
       </c>
     </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>241</v>
+      </c>
+      <c r="B236">
+        <v>4.67</v>
+      </c>
+      <c r="C236">
+        <v>6.77</v>
+      </c>
+      <c r="D236">
+        <v>2.74</v>
+      </c>
+      <c r="E236">
+        <v>3.35</v>
+      </c>
+      <c r="F236">
+        <v>5.44</v>
+      </c>
+      <c r="G236">
+        <v>3.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/2/comerciales - en pesos 2002 a 2021 - Mensual.xlsx
+++ b/3/5/2/2/comerciales - en pesos 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>Serie</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G236"/>
+  <dimension ref="A1:G237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6531,6 +6534,29 @@
         <v>3.85</v>
       </c>
     </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>242</v>
+      </c>
+      <c r="B237">
+        <v>5.58</v>
+      </c>
+      <c r="C237">
+        <v>7.19</v>
+      </c>
+      <c r="D237">
+        <v>3.06</v>
+      </c>
+      <c r="E237">
+        <v>3.22</v>
+      </c>
+      <c r="F237">
+        <v>6.22</v>
+      </c>
+      <c r="G237">
+        <v>5.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/2/comerciales - en pesos 2002 a 2021 - Mensual.xlsx
+++ b/3/5/2/2/comerciales - en pesos 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>Serie</t>
   </si>
@@ -743,6 +743,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G237"/>
+  <dimension ref="A1:G238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6557,6 +6560,29 @@
         <v>5.29</v>
       </c>
     </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>243</v>
+      </c>
+      <c r="B238">
+        <v>5.98</v>
+      </c>
+      <c r="C238">
+        <v>6.99</v>
+      </c>
+      <c r="D238">
+        <v>4.17</v>
+      </c>
+      <c r="E238">
+        <v>4.59</v>
+      </c>
+      <c r="F238">
+        <v>6.29</v>
+      </c>
+      <c r="G238">
+        <v>5.66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/2/comerciales - en pesos 2002 a 2021 - Mensual.xlsx
+++ b/3/5/2/2/comerciales - en pesos 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>Serie</t>
   </si>
@@ -746,6 +746,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G238"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6583,6 +6586,29 @@
         <v>5.66</v>
       </c>
     </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>244</v>
+      </c>
+      <c r="B239">
+        <v>7.08</v>
+      </c>
+      <c r="C239">
+        <v>7.79</v>
+      </c>
+      <c r="D239">
+        <v>4.84</v>
+      </c>
+      <c r="E239">
+        <v>5.42</v>
+      </c>
+      <c r="F239">
+        <v>7.89</v>
+      </c>
+      <c r="G239">
+        <v>6.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
